--- a/有用的网站.xlsx
+++ b/有用的网站.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CC464-CFA2-471F-AEA0-FC18898A91A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA58D5-3125-4B31-861C-0820D0E74235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>latex相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vlab.ustc.edu.cn/guide/doc_vivado.html</t>
   </si>
 </sst>
 </file>
@@ -348,15 +355,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
